--- a/src/Demo.xlsx
+++ b/src/Demo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="320" yWindow="14080" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="22320" yWindow="14380" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="capitals" sheetId="4" r:id="rId4"/>
     <sheet name="Liverpool Transfers" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -7416,14 +7416,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1" customWidth="1"/>
   </cols>
@@ -7433,8 +7432,8 @@
         <v>0</v>
       </c>
       <c r="B1" t="str">
-        <f>"Hit ENTER to see a large "&amp;$C1</f>
-        <v>Hit ENTER to see a large 1</v>
+        <f>"Hit ENTER to see a very large "&amp;$C1</f>
+        <v>Hit ENTER to see a very large 1</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -7448,8 +7447,8 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B65" si="0">"Hit ENTER to see a large "&amp;$C2</f>
-        <v>Hit ENTER to see a large 2</v>
+        <f t="shared" ref="B2:B65" si="0">"Hit ENTER to see a very large "&amp;$C2</f>
+        <v>Hit ENTER to see a very large 2</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -7461,7 +7460,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 3</v>
+        <v>Hit ENTER to see a very large 3</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -7476,7 +7475,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 4</v>
+        <v>Hit ENTER to see a very large 4</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -7488,7 +7487,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 5</v>
+        <v>Hit ENTER to see a very large 5</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -7503,7 +7502,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 6</v>
+        <v>Hit ENTER to see a very large 6</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -7515,7 +7514,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 7</v>
+        <v>Hit ENTER to see a very large 7</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -7530,7 +7529,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 8</v>
+        <v>Hit ENTER to see a very large 8</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -7545,7 +7544,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 9</v>
+        <v>Hit ENTER to see a very large 9</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -7557,7 +7556,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 10</v>
+        <v>Hit ENTER to see a very large 10</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -7572,7 +7571,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 11</v>
+        <v>Hit ENTER to see a very large 11</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -7584,7 +7583,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 12</v>
+        <v>Hit ENTER to see a very large 12</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -7599,7 +7598,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 13</v>
+        <v>Hit ENTER to see a very large 13</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -7614,7 +7613,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 14</v>
+        <v>Hit ENTER to see a very large 14</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -7629,7 +7628,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 15</v>
+        <v>Hit ENTER to see a very large 15</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -7641,7 +7640,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 16</v>
+        <v>Hit ENTER to see a very large 16</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -7656,7 +7655,7 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 17</v>
+        <v>Hit ENTER to see a very large 17</v>
       </c>
       <c r="C17">
         <v>17</v>
@@ -7668,7 +7667,7 @@
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 18</v>
+        <v>Hit ENTER to see a very large 18</v>
       </c>
       <c r="C18">
         <v>18</v>
@@ -7680,7 +7679,7 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 19</v>
+        <v>Hit ENTER to see a very large 19</v>
       </c>
       <c r="C19">
         <v>19</v>
@@ -7692,7 +7691,7 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 20</v>
+        <v>Hit ENTER to see a very large 20</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -7704,7 +7703,7 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 21</v>
+        <v>Hit ENTER to see a very large 21</v>
       </c>
       <c r="C21">
         <v>21</v>
@@ -7716,7 +7715,7 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 22</v>
+        <v>Hit ENTER to see a very large 22</v>
       </c>
       <c r="C22">
         <v>22</v>
@@ -7728,7 +7727,7 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 23</v>
+        <v>Hit ENTER to see a very large 23</v>
       </c>
       <c r="C23">
         <v>23</v>
@@ -7740,7 +7739,7 @@
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 24</v>
+        <v>Hit ENTER to see a very large 24</v>
       </c>
       <c r="C24">
         <v>24</v>
@@ -7752,7 +7751,7 @@
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 25</v>
+        <v>Hit ENTER to see a very large 25</v>
       </c>
       <c r="C25">
         <v>25</v>
@@ -7764,7 +7763,7 @@
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 26</v>
+        <v>Hit ENTER to see a very large 26</v>
       </c>
       <c r="C26">
         <v>26</v>
@@ -7776,7 +7775,7 @@
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 27</v>
+        <v>Hit ENTER to see a very large 27</v>
       </c>
       <c r="C27">
         <v>27</v>
@@ -7788,7 +7787,7 @@
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 28</v>
+        <v>Hit ENTER to see a very large 28</v>
       </c>
       <c r="C28">
         <v>28</v>
@@ -7800,7 +7799,7 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 29</v>
+        <v>Hit ENTER to see a very large 29</v>
       </c>
       <c r="C29">
         <v>29</v>
@@ -7812,7 +7811,7 @@
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 30</v>
+        <v>Hit ENTER to see a very large 30</v>
       </c>
       <c r="C30">
         <v>30</v>
@@ -7824,7 +7823,7 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 31</v>
+        <v>Hit ENTER to see a very large 31</v>
       </c>
       <c r="C31">
         <v>31</v>
@@ -7836,7 +7835,7 @@
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 32</v>
+        <v>Hit ENTER to see a very large 32</v>
       </c>
       <c r="C32">
         <v>32</v>
@@ -7848,7 +7847,7 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 33</v>
+        <v>Hit ENTER to see a very large 33</v>
       </c>
       <c r="C33">
         <v>33</v>
@@ -7860,7 +7859,7 @@
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 34</v>
+        <v>Hit ENTER to see a very large 34</v>
       </c>
       <c r="C34">
         <v>34</v>
@@ -7872,7 +7871,7 @@
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 35</v>
+        <v>Hit ENTER to see a very large 35</v>
       </c>
       <c r="C35">
         <v>35</v>
@@ -7884,7 +7883,7 @@
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 36</v>
+        <v>Hit ENTER to see a very large 36</v>
       </c>
       <c r="C36">
         <v>36</v>
@@ -7896,7 +7895,7 @@
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 37</v>
+        <v>Hit ENTER to see a very large 37</v>
       </c>
       <c r="C37">
         <v>37</v>
@@ -7908,7 +7907,7 @@
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 38</v>
+        <v>Hit ENTER to see a very large 38</v>
       </c>
       <c r="C38">
         <v>38</v>
@@ -7920,7 +7919,7 @@
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 39</v>
+        <v>Hit ENTER to see a very large 39</v>
       </c>
       <c r="C39">
         <v>39</v>
@@ -7932,7 +7931,7 @@
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 40</v>
+        <v>Hit ENTER to see a very large 40</v>
       </c>
       <c r="C40">
         <v>40</v>
@@ -7944,7 +7943,7 @@
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 41</v>
+        <v>Hit ENTER to see a very large 41</v>
       </c>
       <c r="C41">
         <v>41</v>
@@ -7956,7 +7955,7 @@
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 42</v>
+        <v>Hit ENTER to see a very large 42</v>
       </c>
       <c r="C42">
         <v>42</v>
@@ -7968,7 +7967,7 @@
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 43</v>
+        <v>Hit ENTER to see a very large 43</v>
       </c>
       <c r="C43">
         <v>43</v>
@@ -7980,7 +7979,7 @@
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 44</v>
+        <v>Hit ENTER to see a very large 44</v>
       </c>
       <c r="C44">
         <v>44</v>
@@ -7992,7 +7991,7 @@
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 45</v>
+        <v>Hit ENTER to see a very large 45</v>
       </c>
       <c r="C45">
         <v>45</v>
@@ -8004,7 +8003,7 @@
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 46</v>
+        <v>Hit ENTER to see a very large 46</v>
       </c>
       <c r="C46">
         <v>46</v>
@@ -8016,7 +8015,7 @@
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 47</v>
+        <v>Hit ENTER to see a very large 47</v>
       </c>
       <c r="C47">
         <v>47</v>
@@ -8028,7 +8027,7 @@
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 48</v>
+        <v>Hit ENTER to see a very large 48</v>
       </c>
       <c r="C48">
         <v>48</v>
@@ -8040,7 +8039,7 @@
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 49</v>
+        <v>Hit ENTER to see a very large 49</v>
       </c>
       <c r="C49">
         <v>49</v>
@@ -8052,7 +8051,7 @@
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 50</v>
+        <v>Hit ENTER to see a very large 50</v>
       </c>
       <c r="C50">
         <v>50</v>
@@ -8064,7 +8063,7 @@
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 51</v>
+        <v>Hit ENTER to see a very large 51</v>
       </c>
       <c r="C51">
         <v>51</v>
@@ -8076,7 +8075,7 @@
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 52</v>
+        <v>Hit ENTER to see a very large 52</v>
       </c>
       <c r="C52">
         <v>52</v>
@@ -8088,7 +8087,7 @@
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 53</v>
+        <v>Hit ENTER to see a very large 53</v>
       </c>
       <c r="C53">
         <v>53</v>
@@ -8100,7 +8099,7 @@
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 54</v>
+        <v>Hit ENTER to see a very large 54</v>
       </c>
       <c r="C54">
         <v>54</v>
@@ -8112,7 +8111,7 @@
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 55</v>
+        <v>Hit ENTER to see a very large 55</v>
       </c>
       <c r="C55">
         <v>55</v>
@@ -8124,7 +8123,7 @@
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 56</v>
+        <v>Hit ENTER to see a very large 56</v>
       </c>
       <c r="C56">
         <v>56</v>
@@ -8136,7 +8135,7 @@
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 57</v>
+        <v>Hit ENTER to see a very large 57</v>
       </c>
       <c r="C57">
         <v>57</v>
@@ -8148,7 +8147,7 @@
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 58</v>
+        <v>Hit ENTER to see a very large 58</v>
       </c>
       <c r="C58">
         <v>58</v>
@@ -8160,7 +8159,7 @@
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 59</v>
+        <v>Hit ENTER to see a very large 59</v>
       </c>
       <c r="C59">
         <v>59</v>
@@ -8172,7 +8171,7 @@
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 60</v>
+        <v>Hit ENTER to see a very large 60</v>
       </c>
       <c r="C60">
         <v>60</v>
@@ -8184,7 +8183,7 @@
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 61</v>
+        <v>Hit ENTER to see a very large 61</v>
       </c>
       <c r="C61">
         <v>61</v>
@@ -8196,7 +8195,7 @@
       </c>
       <c r="B62" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 62</v>
+        <v>Hit ENTER to see a very large 62</v>
       </c>
       <c r="C62">
         <v>62</v>
@@ -8208,7 +8207,7 @@
       </c>
       <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 63</v>
+        <v>Hit ENTER to see a very large 63</v>
       </c>
       <c r="C63">
         <v>63</v>
@@ -8220,7 +8219,7 @@
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 64</v>
+        <v>Hit ENTER to see a very large 64</v>
       </c>
       <c r="C64">
         <v>64</v>
@@ -8232,7 +8231,7 @@
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v>Hit ENTER to see a large 65</v>
+        <v>Hit ENTER to see a very large 65</v>
       </c>
       <c r="C65">
         <v>65</v>
@@ -8243,8 +8242,8 @@
         <v>845</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B99" si="1">"Hit ENTER to see a large "&amp;$C66</f>
-        <v>Hit ENTER to see a large 66</v>
+        <f t="shared" ref="B66:B99" si="1">"Hit ENTER to see a very large "&amp;$C66</f>
+        <v>Hit ENTER to see a very large 66</v>
       </c>
       <c r="C66">
         <v>66</v>
@@ -8256,7 +8255,7 @@
       </c>
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 67</v>
+        <v>Hit ENTER to see a very large 67</v>
       </c>
       <c r="C67">
         <v>67</v>
@@ -8268,7 +8267,7 @@
       </c>
       <c r="B68" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 68</v>
+        <v>Hit ENTER to see a very large 68</v>
       </c>
       <c r="C68">
         <v>68</v>
@@ -8280,7 +8279,7 @@
       </c>
       <c r="B69" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 69</v>
+        <v>Hit ENTER to see a very large 69</v>
       </c>
       <c r="C69">
         <v>69</v>
@@ -8292,7 +8291,7 @@
       </c>
       <c r="B70" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 70</v>
+        <v>Hit ENTER to see a very large 70</v>
       </c>
       <c r="C70">
         <v>70</v>
@@ -8304,7 +8303,7 @@
       </c>
       <c r="B71" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 71</v>
+        <v>Hit ENTER to see a very large 71</v>
       </c>
       <c r="C71">
         <v>71</v>
@@ -8316,7 +8315,7 @@
       </c>
       <c r="B72" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 72</v>
+        <v>Hit ENTER to see a very large 72</v>
       </c>
       <c r="C72">
         <v>72</v>
@@ -8328,7 +8327,7 @@
       </c>
       <c r="B73" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 73</v>
+        <v>Hit ENTER to see a very large 73</v>
       </c>
       <c r="C73">
         <v>73</v>
@@ -8340,7 +8339,7 @@
       </c>
       <c r="B74" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 74</v>
+        <v>Hit ENTER to see a very large 74</v>
       </c>
       <c r="C74">
         <v>74</v>
@@ -8352,7 +8351,7 @@
       </c>
       <c r="B75" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 75</v>
+        <v>Hit ENTER to see a very large 75</v>
       </c>
       <c r="C75">
         <v>75</v>
@@ -8364,7 +8363,7 @@
       </c>
       <c r="B76" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 76</v>
+        <v>Hit ENTER to see a very large 76</v>
       </c>
       <c r="C76">
         <v>76</v>
@@ -8376,7 +8375,7 @@
       </c>
       <c r="B77" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 77</v>
+        <v>Hit ENTER to see a very large 77</v>
       </c>
       <c r="C77">
         <v>77</v>
@@ -8388,7 +8387,7 @@
       </c>
       <c r="B78" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 78</v>
+        <v>Hit ENTER to see a very large 78</v>
       </c>
       <c r="C78">
         <v>78</v>
@@ -8400,7 +8399,7 @@
       </c>
       <c r="B79" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 79</v>
+        <v>Hit ENTER to see a very large 79</v>
       </c>
       <c r="C79">
         <v>79</v>
@@ -8412,7 +8411,7 @@
       </c>
       <c r="B80" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 80</v>
+        <v>Hit ENTER to see a very large 80</v>
       </c>
       <c r="C80">
         <v>80</v>
@@ -8424,7 +8423,7 @@
       </c>
       <c r="B81" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 81</v>
+        <v>Hit ENTER to see a very large 81</v>
       </c>
       <c r="C81">
         <v>81</v>
@@ -8436,7 +8435,7 @@
       </c>
       <c r="B82" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 82</v>
+        <v>Hit ENTER to see a very large 82</v>
       </c>
       <c r="C82">
         <v>82</v>
@@ -8448,7 +8447,7 @@
       </c>
       <c r="B83" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 83</v>
+        <v>Hit ENTER to see a very large 83</v>
       </c>
       <c r="C83">
         <v>83</v>
@@ -8460,7 +8459,7 @@
       </c>
       <c r="B84" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 84</v>
+        <v>Hit ENTER to see a very large 84</v>
       </c>
       <c r="C84">
         <v>84</v>
@@ -8472,7 +8471,7 @@
       </c>
       <c r="B85" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 85</v>
+        <v>Hit ENTER to see a very large 85</v>
       </c>
       <c r="C85">
         <v>85</v>
@@ -8484,7 +8483,7 @@
       </c>
       <c r="B86" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 86</v>
+        <v>Hit ENTER to see a very large 86</v>
       </c>
       <c r="C86">
         <v>86</v>
@@ -8496,7 +8495,7 @@
       </c>
       <c r="B87" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 87</v>
+        <v>Hit ENTER to see a very large 87</v>
       </c>
       <c r="C87">
         <v>87</v>
@@ -8508,7 +8507,7 @@
       </c>
       <c r="B88" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 88</v>
+        <v>Hit ENTER to see a very large 88</v>
       </c>
       <c r="C88">
         <v>88</v>
@@ -8520,7 +8519,7 @@
       </c>
       <c r="B89" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 89</v>
+        <v>Hit ENTER to see a very large 89</v>
       </c>
       <c r="C89">
         <v>89</v>
@@ -8532,7 +8531,7 @@
       </c>
       <c r="B90" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 90</v>
+        <v>Hit ENTER to see a very large 90</v>
       </c>
       <c r="C90">
         <v>90</v>
@@ -8544,7 +8543,7 @@
       </c>
       <c r="B91" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 91</v>
+        <v>Hit ENTER to see a very large 91</v>
       </c>
       <c r="C91">
         <v>91</v>
@@ -8556,7 +8555,7 @@
       </c>
       <c r="B92" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 92</v>
+        <v>Hit ENTER to see a very large 92</v>
       </c>
       <c r="C92">
         <v>92</v>
@@ -8568,7 +8567,7 @@
       </c>
       <c r="B93" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 93</v>
+        <v>Hit ENTER to see a very large 93</v>
       </c>
       <c r="C93">
         <v>93</v>
@@ -8580,7 +8579,7 @@
       </c>
       <c r="B94" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 94</v>
+        <v>Hit ENTER to see a very large 94</v>
       </c>
       <c r="C94">
         <v>94</v>
@@ -8592,7 +8591,7 @@
       </c>
       <c r="B95" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 95</v>
+        <v>Hit ENTER to see a very large 95</v>
       </c>
       <c r="C95">
         <v>95</v>
@@ -8604,7 +8603,7 @@
       </c>
       <c r="B96" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 96</v>
+        <v>Hit ENTER to see a very large 96</v>
       </c>
       <c r="C96">
         <v>96</v>
@@ -8616,7 +8615,7 @@
       </c>
       <c r="B97" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 97</v>
+        <v>Hit ENTER to see a very large 97</v>
       </c>
       <c r="C97">
         <v>97</v>
@@ -8628,7 +8627,7 @@
       </c>
       <c r="B98" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 98</v>
+        <v>Hit ENTER to see a very large 98</v>
       </c>
       <c r="C98">
         <v>98</v>
@@ -8640,7 +8639,7 @@
       </c>
       <c r="B99" t="str">
         <f t="shared" si="1"/>
-        <v>Hit ENTER to see a large 99</v>
+        <v>Hit ENTER to see a very large 99</v>
       </c>
       <c r="C99">
         <v>99</v>
@@ -8657,7 +8656,7 @@
   <dimension ref="C1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8728,7 +8727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V232"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
@@ -25457,7 +25456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N743"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>

--- a/src/Demo.xlsx
+++ b/src/Demo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="27320" windowHeight="14820" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14820" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24921,7 +24921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -25316,8 +25316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N743"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25325,7 +25325,7 @@
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" style="19" bestFit="1" customWidth="1"/>

--- a/src/Demo.xlsx
+++ b/src/Demo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14820" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="13660" windowHeight="14820" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6600,8 +6600,57 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="Sheet1-style" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FF682894"/>
